--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H2">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I2">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J2">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N2">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O2">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P2">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q2">
-        <v>17.49424383455769</v>
+        <v>18.769653061995</v>
       </c>
       <c r="R2">
-        <v>17.49424383455769</v>
+        <v>75.07861224797999</v>
       </c>
       <c r="S2">
-        <v>0.0004093710540389909</v>
+        <v>0.000288372956287817</v>
       </c>
       <c r="T2">
-        <v>0.0004093710540389909</v>
+        <v>0.0001379990989939475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H3">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I3">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J3">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N3">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P3">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q3">
-        <v>85.29812595390044</v>
+        <v>106.28959230518</v>
       </c>
       <c r="R3">
-        <v>85.29812595390044</v>
+        <v>637.7375538310799</v>
       </c>
       <c r="S3">
-        <v>0.001996004174831583</v>
+        <v>0.001633010682426205</v>
       </c>
       <c r="T3">
-        <v>0.001996004174831583</v>
+        <v>0.00117220077979879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H4">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I4">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J4">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N4">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O4">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P4">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q4">
-        <v>39.590358178653</v>
+        <v>54.32998824756667</v>
       </c>
       <c r="R4">
-        <v>39.590358178653</v>
+        <v>325.9799294854001</v>
       </c>
       <c r="S4">
-        <v>0.0009264273900973745</v>
+        <v>0.0008347143804035716</v>
       </c>
       <c r="T4">
-        <v>0.0009264273900973745</v>
+        <v>0.0005991711249338667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H5">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I5">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J5">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N5">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O5">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P5">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q5">
-        <v>44.72867579840866</v>
+        <v>70.99059272088451</v>
       </c>
       <c r="R5">
-        <v>44.72867579840866</v>
+        <v>425.943556325307</v>
       </c>
       <c r="S5">
-        <v>0.001046665710763246</v>
+        <v>0.001090684362887735</v>
       </c>
       <c r="T5">
-        <v>0.001046665710763246</v>
+        <v>0.0007829104086397333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H6">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I6">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J6">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N6">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O6">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P6">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q6">
-        <v>11.32929704108716</v>
+        <v>17.8291447575935</v>
       </c>
       <c r="R6">
-        <v>11.32929704108716</v>
+        <v>106.974868545561</v>
       </c>
       <c r="S6">
-        <v>0.0002651092733753434</v>
+        <v>0.0002739231867977956</v>
       </c>
       <c r="T6">
-        <v>0.0002651092733753434</v>
+        <v>0.000196626376437593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H7">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I7">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J7">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N7">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O7">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P7">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q7">
-        <v>21.17863730564511</v>
+        <v>45.1464721126045</v>
       </c>
       <c r="R7">
-        <v>21.17863730564511</v>
+        <v>180.585888450418</v>
       </c>
       <c r="S7">
-        <v>0.000495587071891332</v>
+        <v>0.0006936207923543512</v>
       </c>
       <c r="T7">
-        <v>0.000495587071891332</v>
+        <v>0.0003319279505975378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H8">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N8">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O8">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P8">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q8">
-        <v>2.35662613851478</v>
+        <v>2.65517793211</v>
       </c>
       <c r="R8">
-        <v>2.35662613851478</v>
+        <v>15.93106759266</v>
       </c>
       <c r="S8">
-        <v>5.514582598842713E-05</v>
+        <v>4.079358884384995E-05</v>
       </c>
       <c r="T8">
-        <v>5.514582598842713E-05</v>
+        <v>2.928228037216959E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H9">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N9">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P9">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q9">
-        <v>11.49039621776657</v>
+        <v>15.03585489670666</v>
       </c>
       <c r="R9">
-        <v>11.49039621776657</v>
+        <v>135.32269407036</v>
       </c>
       <c r="S9">
-        <v>0.0002688790470440852</v>
+        <v>0.0002310076756643626</v>
       </c>
       <c r="T9">
-        <v>0.0002688790470440852</v>
+        <v>0.0002487314202540514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H10">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N10">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O10">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P10">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q10">
-        <v>5.33316408524467</v>
+        <v>7.685586162422222</v>
       </c>
       <c r="R10">
-        <v>5.33316408524467</v>
+        <v>69.1702754618</v>
       </c>
       <c r="S10">
-        <v>0.0001247977919815418</v>
+        <v>0.000118079710644735</v>
       </c>
       <c r="T10">
-        <v>0.0001247977919815418</v>
+        <v>0.0001271392132204519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H11">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N11">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O11">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P11">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q11">
-        <v>6.025339964649485</v>
+        <v>10.042415518141</v>
       </c>
       <c r="R11">
-        <v>6.025339964649485</v>
+        <v>90.381739663269</v>
       </c>
       <c r="S11">
-        <v>0.0001409949349968106</v>
+        <v>0.0001542895354363658</v>
       </c>
       <c r="T11">
-        <v>0.0001409949349968106</v>
+        <v>0.000166127186765792</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H12">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J12">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N12">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O12">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P12">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q12">
-        <v>1.526154419162935</v>
+        <v>2.522132484409667</v>
       </c>
       <c r="R12">
-        <v>1.526154419162935</v>
+        <v>22.699192359687</v>
       </c>
       <c r="S12">
-        <v>3.571251487674208E-05</v>
+        <v>3.874950689160191E-05</v>
       </c>
       <c r="T12">
-        <v>3.571251487674208E-05</v>
+        <v>4.172250924378778E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H13">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J13">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N13">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O13">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P13">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q13">
-        <v>2.85294584462212</v>
+        <v>6.386474809634333</v>
       </c>
       <c r="R13">
-        <v>2.85294584462212</v>
+        <v>38.318848857806</v>
       </c>
       <c r="S13">
-        <v>6.675987019353472E-05</v>
+        <v>9.81204402142623E-05</v>
       </c>
       <c r="T13">
-        <v>6.675987019353472E-05</v>
+        <v>7.043239690414972E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H14">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I14">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J14">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N14">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O14">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P14">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q14">
-        <v>1205.643962300726</v>
+        <v>1584.93572359375</v>
       </c>
       <c r="R14">
-        <v>1205.643962300726</v>
+        <v>9509.614341562499</v>
       </c>
       <c r="S14">
-        <v>0.02821246487189323</v>
+        <v>0.02435061525267855</v>
       </c>
       <c r="T14">
-        <v>0.02821246487189323</v>
+        <v>0.01747925503179309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H15">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I15">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J15">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N15">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O15">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P15">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q15">
-        <v>5878.457595791652</v>
+        <v>8975.241648541667</v>
       </c>
       <c r="R15">
-        <v>5878.457595791652</v>
+        <v>80777.174836875</v>
       </c>
       <c r="S15">
-        <v>0.1375578393024945</v>
+        <v>0.1378937031515063</v>
       </c>
       <c r="T15">
-        <v>0.1375578393024945</v>
+        <v>0.1484734069131018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H16">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I16">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J16">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N16">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O16">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P16">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q16">
-        <v>2728.433235229511</v>
+        <v>4587.700100347222</v>
       </c>
       <c r="R16">
-        <v>2728.433235229511</v>
+        <v>41289.300903125</v>
       </c>
       <c r="S16">
-        <v>0.0638462342210265</v>
+        <v>0.0704844482809224</v>
       </c>
       <c r="T16">
-        <v>0.0638462342210265</v>
+        <v>0.07589227014347934</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H17">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I17">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J17">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N17">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O17">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P17">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q17">
-        <v>3082.548661607897</v>
+        <v>5994.544815015626</v>
       </c>
       <c r="R17">
-        <v>3082.548661607897</v>
+        <v>53950.90333514063</v>
       </c>
       <c r="S17">
-        <v>0.07213265155457407</v>
+        <v>0.09209891116240611</v>
       </c>
       <c r="T17">
-        <v>0.07213265155457407</v>
+        <v>0.09916507281152201</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H18">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I18">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J18">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N18">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O18">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P18">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q18">
-        <v>780.7767345574762</v>
+        <v>1505.517888588542</v>
       </c>
       <c r="R18">
-        <v>780.7767345574762</v>
+        <v>13549.66099729688</v>
       </c>
       <c r="S18">
-        <v>0.01827043213857186</v>
+        <v>0.02313045653228099</v>
       </c>
       <c r="T18">
-        <v>0.01827043213857186</v>
+        <v>0.02490510883611477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H19">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I19">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J19">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N19">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O19">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P19">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q19">
-        <v>1459.559866592743</v>
+        <v>3812.231169598958</v>
       </c>
       <c r="R19">
-        <v>1459.559866592743</v>
+        <v>22873.38701759375</v>
       </c>
       <c r="S19">
-        <v>0.03415418046476468</v>
+        <v>0.05857030861458907</v>
       </c>
       <c r="T19">
-        <v>0.03415418046476468</v>
+        <v>0.04204268972023681</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H20">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I20">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J20">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N20">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O20">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P20">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q20">
-        <v>2145.241721376769</v>
+        <v>2251.45609137966</v>
       </c>
       <c r="R20">
-        <v>2145.241721376769</v>
+        <v>13508.73654827796</v>
       </c>
       <c r="S20">
-        <v>0.05019936117008117</v>
+        <v>0.03459089237712086</v>
       </c>
       <c r="T20">
-        <v>0.05019936117008117</v>
+        <v>0.02482988718613567</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H21">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I21">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J21">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N21">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O21">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P21">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q21">
-        <v>10459.73179990173</v>
+        <v>12749.64162924824</v>
       </c>
       <c r="R21">
-        <v>10459.73179990173</v>
+        <v>114746.7746632342</v>
       </c>
       <c r="S21">
-        <v>0.2447611610072876</v>
+        <v>0.195882781428766</v>
       </c>
       <c r="T21">
-        <v>0.2447611610072876</v>
+        <v>0.2109116170619401</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H22">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I22">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J22">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N22">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O22">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P22">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q22">
-        <v>4854.790463210881</v>
+        <v>6516.986892647868</v>
       </c>
       <c r="R22">
-        <v>4854.790463210881</v>
+        <v>58652.88203383081</v>
       </c>
       <c r="S22">
-        <v>0.1136036920405327</v>
+        <v>0.100125600090451</v>
       </c>
       <c r="T22">
-        <v>0.1136036920405327</v>
+        <v>0.1078075983521488</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H23">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I23">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J23">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N23">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O23">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P23">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q23">
-        <v>5484.879619382969</v>
+        <v>8515.458537468548</v>
       </c>
       <c r="R23">
-        <v>5484.879619382969</v>
+        <v>76639.12683721693</v>
       </c>
       <c r="S23">
-        <v>0.1283479853315166</v>
+        <v>0.1308296932546035</v>
       </c>
       <c r="T23">
-        <v>0.1283479853315166</v>
+        <v>0.1408674206215546</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H24">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I24">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J24">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N24">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O24">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P24">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q24">
-        <v>1389.261571763444</v>
+        <v>2138.640306029558</v>
       </c>
       <c r="R24">
-        <v>1389.261571763444</v>
+        <v>19247.76275426602</v>
       </c>
       <c r="S24">
-        <v>0.03250917726693761</v>
+        <v>0.03285761465323933</v>
       </c>
       <c r="T24">
-        <v>0.03250917726693761</v>
+        <v>0.0353785697178951</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H25">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I25">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J25">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N25">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O25">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P25">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q25">
-        <v>2597.042591816892</v>
+        <v>5415.406417289506</v>
       </c>
       <c r="R25">
-        <v>2597.042591816892</v>
+        <v>32492.43850373704</v>
       </c>
       <c r="S25">
-        <v>0.06077164999244528</v>
+        <v>0.08320115203492227</v>
       </c>
       <c r="T25">
-        <v>0.06077164999244528</v>
+        <v>0.05972309694299924</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H26">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I26">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J26">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N26">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O26">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P26">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q26">
-        <v>16.10010889096614</v>
+        <v>18.68140917368</v>
       </c>
       <c r="R26">
-        <v>16.10010889096614</v>
+        <v>112.08845504208</v>
       </c>
       <c r="S26">
-        <v>0.0003767478382699687</v>
+        <v>0.0002870171959621637</v>
       </c>
       <c r="T26">
-        <v>0.0003767478382699687</v>
+        <v>0.000206025462382555</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H27">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I27">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J27">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N27">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O27">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P27">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q27">
-        <v>78.50062735151445</v>
+        <v>105.7898810488533</v>
       </c>
       <c r="R27">
-        <v>78.50062735151445</v>
+        <v>952.10892943968</v>
       </c>
       <c r="S27">
-        <v>0.001836940473993571</v>
+        <v>0.00162533322500058</v>
       </c>
       <c r="T27">
-        <v>0.001836940473993571</v>
+        <v>0.001750034669964253</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H28">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I28">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J28">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N28">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O28">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P28">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q28">
-        <v>36.43536032403661</v>
+        <v>54.07456054204445</v>
       </c>
       <c r="R28">
-        <v>36.43536032403661</v>
+        <v>486.6710448784</v>
       </c>
       <c r="S28">
-        <v>0.0008525994036208317</v>
+        <v>0.0008307900434797099</v>
       </c>
       <c r="T28">
-        <v>0.0008525994036208317</v>
+        <v>0.0008945312611511299</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H29">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I29">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J29">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N29">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O29">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P29">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q29">
-        <v>41.16419993418417</v>
+        <v>70.65683663520801</v>
       </c>
       <c r="R29">
-        <v>41.16419993418417</v>
+        <v>635.9115297168721</v>
       </c>
       <c r="S29">
-        <v>0.000963255804314379</v>
+        <v>0.001085556605396018</v>
       </c>
       <c r="T29">
-        <v>0.000963255804314379</v>
+        <v>0.001168844435362513</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H30">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I30">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J30">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N30">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O30">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P30">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q30">
-        <v>10.42645328055218</v>
+        <v>17.74532258711734</v>
       </c>
       <c r="R30">
-        <v>10.42645328055218</v>
+        <v>159.707903284056</v>
       </c>
       <c r="S30">
-        <v>0.0002439824327197539</v>
+        <v>0.0002726353608042711</v>
       </c>
       <c r="T30">
-        <v>0.0002439824327197539</v>
+        <v>0.0002935529319936947</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H31">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I31">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J31">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N31">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O31">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P31">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q31">
-        <v>19.49088911803115</v>
+        <v>44.93421990795466</v>
       </c>
       <c r="R31">
-        <v>19.49088911803115</v>
+        <v>269.605319447728</v>
       </c>
       <c r="S31">
-        <v>0.000456093209735878</v>
+        <v>0.0006903597946400454</v>
       </c>
       <c r="T31">
-        <v>0.000456093209735878</v>
+        <v>0.0004955511303921695</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H32">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I32">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J32">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.580882605382533</v>
+        <v>0.58839</v>
       </c>
       <c r="N32">
-        <v>0.580882605382533</v>
+        <v>1.17678</v>
       </c>
       <c r="O32">
-        <v>0.07965711938179147</v>
+        <v>0.05989892139727841</v>
       </c>
       <c r="P32">
-        <v>0.07965711938179147</v>
+        <v>0.04284574258344266</v>
       </c>
       <c r="Q32">
-        <v>17.26593795840812</v>
+        <v>22.21002028773</v>
       </c>
       <c r="R32">
-        <v>17.26593795840812</v>
+        <v>88.84008115092</v>
       </c>
       <c r="S32">
-        <v>0.0004040286215196715</v>
+        <v>0.0003412300263851727</v>
       </c>
       <c r="T32">
-        <v>0.0004040286215196715</v>
+        <v>0.0001632935237652317</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H33">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I33">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J33">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.83225717595595</v>
+        <v>3.33196</v>
       </c>
       <c r="N33">
-        <v>2.83225717595595</v>
+        <v>9.99588</v>
       </c>
       <c r="O33">
-        <v>0.3883907796421041</v>
+        <v>0.3391981681178738</v>
       </c>
       <c r="P33">
-        <v>0.3883907796421041</v>
+        <v>0.3639430491468098</v>
       </c>
       <c r="Q33">
-        <v>84.18495618423296</v>
+        <v>125.77185063972</v>
       </c>
       <c r="R33">
-        <v>84.18495618423296</v>
+        <v>754.63110383832</v>
       </c>
       <c r="S33">
-        <v>0.001969955636452751</v>
+        <v>0.001932331954510342</v>
       </c>
       <c r="T33">
-        <v>0.001969955636452751</v>
+        <v>0.001387058301750883</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H34">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I34">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J34">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.31456670115774</v>
+        <v>1.703133333333334</v>
       </c>
       <c r="N34">
-        <v>1.31456670115774</v>
+        <v>5.109400000000001</v>
       </c>
       <c r="O34">
-        <v>0.1802680880424908</v>
+        <v>0.173381345132341</v>
       </c>
       <c r="P34">
-        <v>0.1802680880424908</v>
+        <v>0.1860297057698482</v>
       </c>
       <c r="Q34">
-        <v>39.07369043945082</v>
+        <v>64.2883561686</v>
       </c>
       <c r="R34">
-        <v>39.07369043945082</v>
+        <v>385.7301370116</v>
       </c>
       <c r="S34">
-        <v>0.0009143371952318309</v>
+        <v>0.0009877126264396074</v>
       </c>
       <c r="T34">
-        <v>0.0009143371952318309</v>
+        <v>0.0007089956749146613</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H35">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I35">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J35">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.48518049587064</v>
+        <v>2.225409</v>
       </c>
       <c r="N35">
-        <v>1.48518049587064</v>
+        <v>6.676227000000001</v>
       </c>
       <c r="O35">
-        <v>0.2036645597007805</v>
+        <v>0.2265497353248627</v>
       </c>
       <c r="P35">
-        <v>0.2036645597007805</v>
+        <v>0.2430767887545928</v>
       </c>
       <c r="Q35">
-        <v>44.14495125371051</v>
+        <v>84.00275164176301</v>
       </c>
       <c r="R35">
-        <v>44.14495125371051</v>
+        <v>504.0165098505781</v>
       </c>
       <c r="S35">
-        <v>0.001033006364615373</v>
+        <v>0.001290600404132975</v>
       </c>
       <c r="T35">
-        <v>0.001033006364615373</v>
+        <v>0.0009264132907481278</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H36">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I36">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J36">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.376180396513018</v>
+        <v>0.558907</v>
       </c>
       <c r="N36">
-        <v>0.376180396513018</v>
+        <v>1.676721</v>
       </c>
       <c r="O36">
-        <v>0.05158606313300387</v>
+        <v>0.05689751093898382</v>
       </c>
       <c r="P36">
-        <v>0.05158606313300387</v>
+        <v>0.06104824720869879</v>
       </c>
       <c r="Q36">
-        <v>11.18144583290777</v>
+        <v>21.097122332049</v>
       </c>
       <c r="R36">
-        <v>11.18144583290777</v>
+        <v>126.582733992294</v>
       </c>
       <c r="S36">
-        <v>0.0002616495065225589</v>
+        <v>0.0003241316989698291</v>
       </c>
       <c r="T36">
-        <v>0.0002616495065225589</v>
+        <v>0.000232666837013854</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>29.7236271122938</v>
+        <v>37.747107</v>
       </c>
       <c r="H37">
-        <v>29.7236271122938</v>
+        <v>75.494214</v>
       </c>
       <c r="I37">
-        <v>0.005072096815140756</v>
+        <v>0.005696764122378286</v>
       </c>
       <c r="J37">
-        <v>0.005072096815140756</v>
+        <v>0.003811196023670623</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.703219992409914</v>
+        <v>1.415249</v>
       </c>
       <c r="N37">
-        <v>0.703219992409914</v>
+        <v>2.830498</v>
       </c>
       <c r="O37">
-        <v>0.09643339009982929</v>
+        <v>0.1440743190886604</v>
       </c>
       <c r="P37">
-        <v>0.09643339009982929</v>
+        <v>0.1030564665366078</v>
       </c>
       <c r="Q37">
-        <v>20.90224883230236</v>
+        <v>53.421555434643</v>
       </c>
       <c r="R37">
-        <v>20.90224883230236</v>
+        <v>213.686221738572</v>
       </c>
       <c r="S37">
-        <v>0.0004891194907985703</v>
+        <v>0.0008207574119403615</v>
       </c>
       <c r="T37">
-        <v>0.0004891194907985703</v>
+        <v>0.0003927683954778641</v>
       </c>
     </row>
   </sheetData>
